--- a/data/trans_orig/P34E1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8CDB88A-B0CD-4FE7-9992-7B71BDBF6CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D21B9E83-B8D0-4212-898D-5EA411B6D70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE892876-74B2-435B-8D47-373603F770E2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00CB4539-F2DA-4A09-A442-028C871371BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="605">
   <si>
     <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 26,03%)</t>
   </si>
@@ -87,1627 +87,1657 @@
     <t>5,92%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>19,33%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
     <t>24,49%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
   </si>
   <si>
     <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -2233,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE397C19-DF7A-4DFF-AEA8-54CD21B43150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7116DD-7CE4-4D3E-A288-7E7C2DC4A6F1}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2986,13 +3016,13 @@
         <v>22970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3001,13 +3031,13 @@
         <v>63958</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3052,13 @@
         <v>7141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3037,13 +3067,13 @@
         <v>6764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -3052,13 +3082,13 @@
         <v>13905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3103,13 @@
         <v>38096</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3088,13 +3118,13 @@
         <v>18922</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -3103,13 +3133,13 @@
         <v>57018</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3154,13 @@
         <v>23369</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3139,13 +3169,13 @@
         <v>19017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -3154,13 +3184,13 @@
         <v>42385</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3205,13 @@
         <v>5075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3190,13 +3220,13 @@
         <v>3368</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -3205,13 +3235,13 @@
         <v>8443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,7 +3297,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -3285,7 +3315,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3300,7 +3330,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3315,7 +3345,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3360,13 @@
         <v>9246</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3345,13 +3375,13 @@
         <v>3740</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -3360,13 +3390,13 @@
         <v>12987</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3411,13 @@
         <v>935</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3396,13 +3426,13 @@
         <v>902</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -3411,13 +3441,13 @@
         <v>1836</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3462,13 @@
         <v>26679</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3447,13 +3477,13 @@
         <v>8240</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -3462,13 +3492,13 @@
         <v>34919</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3513,13 @@
         <v>4575</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -3498,13 +3528,13 @@
         <v>10668</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -3513,13 +3543,13 @@
         <v>15243</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3564,13 @@
         <v>19398</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
         <v>19</v>
@@ -3549,13 +3579,13 @@
         <v>18904</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M27" s="7">
         <v>39</v>
@@ -3564,13 +3594,13 @@
         <v>38301</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3615,13 @@
         <v>12087</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3600,13 +3630,13 @@
         <v>18439</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -3615,13 +3645,13 @@
         <v>30526</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3666,13 @@
         <v>9918</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3651,13 +3681,13 @@
         <v>1707</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -3666,13 +3696,13 @@
         <v>11625</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3758,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B31" s="5">
         <v>994</v>
@@ -3746,7 +3776,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3761,7 +3791,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3776,7 +3806,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3821,13 @@
         <v>15869</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -3806,13 +3836,13 @@
         <v>4049</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -3821,13 +3851,13 @@
         <v>19918</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3872,13 @@
         <v>5053</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3857,13 +3887,13 @@
         <v>943</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -3872,13 +3902,13 @@
         <v>5996</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3923,13 @@
         <v>17700</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3908,13 +3938,13 @@
         <v>2435</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -3923,13 +3953,13 @@
         <v>20135</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3974,13 @@
         <v>4698</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -3959,13 +3989,13 @@
         <v>7916</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -3974,13 +4004,13 @@
         <v>12614</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4025,13 @@
         <v>28603</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -4010,13 +4040,13 @@
         <v>14147</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>40</v>
@@ -4025,13 +4055,13 @@
         <v>42750</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4076,13 @@
         <v>27767</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>16</v>
@@ -4061,13 +4091,13 @@
         <v>17140</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>43</v>
@@ -4076,13 +4106,13 @@
         <v>44907</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4127,13 @@
         <v>13814</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -4112,13 +4142,13 @@
         <v>3772</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>16</v>
@@ -4127,13 +4157,13 @@
         <v>17586</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4219,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -4207,7 +4237,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -4222,7 +4252,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -4237,7 +4267,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4282,13 @@
         <v>9192</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -4267,13 +4297,13 @@
         <v>7130</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M41" s="7">
         <v>16</v>
@@ -4282,13 +4312,13 @@
         <v>16323</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4333,13 @@
         <v>7116</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -4318,13 +4348,13 @@
         <v>1749</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M42" s="7">
         <v>8</v>
@@ -4333,13 +4363,13 @@
         <v>8865</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4384,13 @@
         <v>13805</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H43" s="7">
         <v>14</v>
@@ -4369,13 +4399,13 @@
         <v>13015</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M43" s="7">
         <v>28</v>
@@ -4384,13 +4414,13 @@
         <v>26820</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4435,13 @@
         <v>7811</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H44" s="7">
         <v>4</v>
@@ -4420,13 +4450,13 @@
         <v>3365</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
@@ -4435,13 +4465,13 @@
         <v>11176</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4486,13 @@
         <v>12261</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H45" s="7">
         <v>15</v>
@@ -4471,13 +4501,13 @@
         <v>14175</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M45" s="7">
         <v>27</v>
@@ -4486,13 +4516,13 @@
         <v>26436</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4537,13 @@
         <v>9107</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -4522,13 +4552,13 @@
         <v>9015</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M46" s="7">
         <v>17</v>
@@ -4537,13 +4567,13 @@
         <v>18122</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4588,13 @@
         <v>891</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -4573,13 +4603,13 @@
         <v>1772</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -4588,13 +4618,13 @@
         <v>2663</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,7 +4680,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B49" s="5">
         <v>994</v>
@@ -4668,7 +4698,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4683,7 +4713,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4698,7 +4728,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4743,13 @@
         <v>12368</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H50" s="7">
         <v>3</v>
@@ -4728,13 +4758,13 @@
         <v>3006</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -4743,13 +4773,13 @@
         <v>15374</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>328</v>
+        <v>176</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4794,13 @@
         <v>2689</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H51" s="7">
         <v>4</v>
@@ -4779,13 +4809,13 @@
         <v>3867</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M51" s="7">
         <v>7</v>
@@ -4794,13 +4824,13 @@
         <v>6556</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4845,13 @@
         <v>9809</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -4830,13 +4860,13 @@
         <v>5041</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M52" s="7">
         <v>15</v>
@@ -4845,13 +4875,13 @@
         <v>14851</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4896,13 @@
         <v>10807</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H53" s="7">
         <v>9</v>
@@ -4881,13 +4911,13 @@
         <v>8908</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M53" s="7">
         <v>20</v>
@@ -4896,13 +4926,13 @@
         <v>19715</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4947,13 @@
         <v>23874</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H54" s="7">
         <v>21</v>
@@ -4932,13 +4962,13 @@
         <v>20997</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M54" s="7">
         <v>43</v>
@@ -4950,10 +4980,10 @@
         <v>96</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>361</v>
+        <v>126</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4998,13 @@
         <v>14579</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H55" s="7">
         <v>9</v>
@@ -4983,13 +5013,13 @@
         <v>9425</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M55" s="7">
         <v>24</v>
@@ -4998,13 +5028,13 @@
         <v>24004</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5049,13 @@
         <v>9408</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -5034,13 +5064,13 @@
         <v>1827</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="M56" s="7">
         <v>11</v>
@@ -5049,13 +5079,13 @@
         <v>11235</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>201</v>
+        <v>379</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5141,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B58" s="5">
         <v>994</v>
@@ -5129,7 +5159,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -5144,7 +5174,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -5159,7 +5189,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5204,13 @@
         <v>17410</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>43</v>
+        <v>387</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H59" s="7">
         <v>15</v>
@@ -5189,13 +5219,13 @@
         <v>15894</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M59" s="7">
         <v>30</v>
@@ -5204,13 +5234,13 @@
         <v>33305</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5255,13 @@
         <v>4031</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -5246,7 +5276,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -5255,13 +5285,13 @@
         <v>4031</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5306,13 @@
         <v>35927</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>397</v>
+        <v>75</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H61" s="7">
         <v>17</v>
@@ -5291,13 +5321,13 @@
         <v>17616</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M61" s="7">
         <v>49</v>
@@ -5306,13 +5336,13 @@
         <v>53544</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5357,13 @@
         <v>24737</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>405</v>
+        <v>86</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>148</v>
+        <v>409</v>
       </c>
       <c r="H62" s="7">
         <v>17</v>
@@ -5342,13 +5372,13 @@
         <v>17160</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="M62" s="7">
         <v>39</v>
@@ -5357,13 +5387,13 @@
         <v>41898</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5408,13 @@
         <v>59887</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>412</v>
+        <v>190</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H63" s="7">
         <v>47</v>
@@ -5393,13 +5423,13 @@
         <v>47300</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M63" s="7">
         <v>101</v>
@@ -5408,13 +5438,13 @@
         <v>107187</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5459,13 @@
         <v>68742</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H64" s="7">
         <v>44</v>
@@ -5444,13 +5474,13 @@
         <v>44685</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M64" s="7">
         <v>102</v>
@@ -5459,13 +5489,13 @@
         <v>113427</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5510,13 @@
         <v>37512</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>251</v>
+        <v>435</v>
       </c>
       <c r="H65" s="7">
         <v>40</v>
@@ -5495,13 +5525,13 @@
         <v>42701</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>285</v>
+        <v>437</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M65" s="7">
         <v>72</v>
@@ -5510,13 +5540,13 @@
         <v>80212</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,7 +5602,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B67" s="5">
         <v>994</v>
@@ -5590,7 +5620,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -5605,7 +5635,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -5620,7 +5650,7 @@
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5665,13 @@
         <v>25330</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H68" s="7">
         <v>21</v>
@@ -5650,13 +5680,13 @@
         <v>22409</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>351</v>
+        <v>449</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M68" s="7">
         <v>45</v>
@@ -5665,13 +5695,13 @@
         <v>47739</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>61</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,10 +5719,10 @@
         <v>92</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H69" s="7">
         <v>4</v>
@@ -5701,13 +5731,13 @@
         <v>4030</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M69" s="7">
         <v>8</v>
@@ -5716,13 +5746,13 @@
         <v>8162</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>449</v>
+        <v>209</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>450</v>
+        <v>14</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5767,13 @@
         <v>48545</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="H70" s="7">
         <v>27</v>
@@ -5752,13 +5782,13 @@
         <v>29247</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>47</v>
+        <v>462</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>206</v>
+        <v>463</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="M70" s="7">
         <v>74</v>
@@ -5767,13 +5797,13 @@
         <v>77792</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5818,13 @@
         <v>24139</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H71" s="7">
         <v>13</v>
@@ -5803,13 +5833,13 @@
         <v>12851</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>464</v>
+        <v>30</v>
       </c>
       <c r="M71" s="7">
         <v>37</v>
@@ -5818,13 +5848,13 @@
         <v>36990</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>467</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5869,13 @@
         <v>71381</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="H72" s="7">
         <v>34</v>
@@ -5854,13 +5884,13 @@
         <v>36237</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M72" s="7">
         <v>100</v>
@@ -5869,13 +5899,13 @@
         <v>107619</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>270</v>
+        <v>481</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5920,13 @@
         <v>50322</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="H73" s="7">
         <v>47</v>
@@ -5905,13 +5935,13 @@
         <v>52362</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>480</v>
+        <v>245</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M73" s="7">
         <v>96</v>
@@ -5920,13 +5950,13 @@
         <v>102685</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>244</v>
+        <v>489</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5971,13 @@
         <v>13473</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>485</v>
+        <v>332</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H74" s="7">
         <v>10</v>
@@ -5956,13 +5986,13 @@
         <v>10037</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>397</v>
+        <v>495</v>
       </c>
       <c r="M74" s="7">
         <v>23</v>
@@ -5971,13 +6001,13 @@
         <v>23509</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>28</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,7 +6081,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -6066,7 +6096,7 @@
         <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M76" s="7">
         <v>0</v>
@@ -6081,7 +6111,7 @@
         <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6126,13 @@
         <v>105051</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H77" s="7">
         <v>63</v>
@@ -6111,13 +6141,13 @@
         <v>65824</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="M77" s="7">
         <v>161</v>
@@ -6126,13 +6156,13 @@
         <v>170875</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6177,13 @@
         <v>39866</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="H78" s="7">
         <v>24</v>
@@ -6162,13 +6192,13 @@
         <v>23771</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="M78" s="7">
         <v>60</v>
@@ -6177,13 +6207,13 @@
         <v>63637</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6228,13 @@
         <v>215632</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="H79" s="7">
         <v>111</v>
@@ -6213,13 +6243,13 @@
         <v>115071</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="M79" s="7">
         <v>316</v>
@@ -6228,13 +6258,13 @@
         <v>330702</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>298</v>
+        <v>526</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6279,13 @@
         <v>94247</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="H80" s="7">
         <v>75</v>
@@ -6264,13 +6294,13 @@
         <v>75198</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="M80" s="7">
         <v>166</v>
@@ -6279,13 +6309,13 @@
         <v>169446</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>402</v>
+        <v>534</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>524</v>
+        <v>208</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6330,13 @@
         <v>286151</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="H81" s="7">
         <v>177</v>
@@ -6315,13 +6345,13 @@
         <v>182012</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="M81" s="7">
         <v>445</v>
@@ -6330,13 +6360,13 @@
         <v>468163</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6381,13 @@
         <v>235624</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="H82" s="7">
         <v>179</v>
@@ -6366,13 +6396,13 @@
         <v>190321</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="M82" s="7">
         <v>397</v>
@@ -6381,13 +6411,13 @@
         <v>425945</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6432,13 @@
         <v>104034</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="H83" s="7">
         <v>70</v>
@@ -6417,13 +6447,13 @@
         <v>71711</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>546</v>
+        <v>267</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="M83" s="7">
         <v>165</v>
@@ -6432,13 +6462,13 @@
         <v>175745</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>550</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6524,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -6518,7 +6548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B502AA84-4374-4A2C-841C-8C549F5FD486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C66293-B2AC-4B45-990C-0154153AE087}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6535,7 +6565,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6642,10 +6672,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>78</v>
@@ -6657,10 +6687,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>78</v>
@@ -6672,10 +6702,10 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>78</v>
@@ -6699,7 +6729,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6714,7 +6744,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6729,7 +6759,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6780,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6765,7 +6795,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6780,7 +6810,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,7 +6831,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6816,7 +6846,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6831,7 +6861,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6882,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6867,7 +6897,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6882,7 +6912,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,7 +6933,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6918,7 +6948,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6933,7 +6963,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,7 +6984,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6969,7 +6999,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6984,7 +7014,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,7 +7035,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7020,7 +7050,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7035,7 +7065,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,10 +7133,10 @@
         <v>519297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>78</v>
@@ -7118,10 +7148,10 @@
         <v>554566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>78</v>
@@ -7133,10 +7163,10 @@
         <v>1073864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>78</v>
@@ -7160,7 +7190,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7175,7 +7205,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7190,7 +7220,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,7 +7241,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7226,7 +7256,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7241,7 +7271,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,7 +7292,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7277,7 +7307,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7292,7 +7322,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,7 +7343,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7328,7 +7358,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7343,7 +7373,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,7 +7394,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7379,7 +7409,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7394,7 +7424,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,7 +7445,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7430,7 +7460,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7445,7 +7475,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,7 +7496,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7481,7 +7511,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7496,7 +7526,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,7 +7582,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -7564,10 +7594,10 @@
         <v>322240</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>78</v>
@@ -7579,10 +7609,10 @@
         <v>373284</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>78</v>
@@ -7594,10 +7624,10 @@
         <v>695524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>78</v>
@@ -7621,7 +7651,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7636,7 +7666,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7651,7 +7681,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,7 +7702,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7687,7 +7717,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7702,7 +7732,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,7 +7753,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7738,7 +7768,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7753,7 +7783,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,7 +7804,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7789,7 +7819,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7804,7 +7834,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,7 +7855,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7840,7 +7870,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -7855,7 +7885,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,7 +7906,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7891,7 +7921,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7906,7 +7936,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,7 +7957,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7942,7 +7972,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7957,7 +7987,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,7 +8043,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B31" s="5">
         <v>994</v>
@@ -8025,10 +8055,10 @@
         <v>322240</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>78</v>
@@ -8040,10 +8070,10 @@
         <v>428556</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>78</v>
@@ -8055,10 +8085,10 @@
         <v>750796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>78</v>
@@ -8082,7 +8112,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8097,7 +8127,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8112,7 +8142,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,7 +8163,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8148,7 +8178,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -8163,7 +8193,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,7 +8214,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8199,7 +8229,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8214,7 +8244,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,7 +8265,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8250,7 +8280,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -8265,7 +8295,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,7 +8316,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8301,7 +8331,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8316,7 +8346,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,7 +8367,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -8352,7 +8382,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -8367,7 +8397,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,7 +8418,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -8403,7 +8433,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -8418,7 +8448,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8474,7 +8504,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -8486,10 +8516,10 @@
         <v>196748</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>78</v>
@@ -8501,10 +8531,10 @@
         <v>259513</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>78</v>
@@ -8516,10 +8546,10 @@
         <v>456260</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>78</v>
@@ -8543,7 +8573,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -8558,7 +8588,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -8573,7 +8603,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8594,7 +8624,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -8609,7 +8639,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -8624,7 +8654,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8645,7 +8675,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -8660,7 +8690,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -8675,7 +8705,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,7 +8726,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -8711,7 +8741,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -8726,7 +8756,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,7 +8777,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -8762,7 +8792,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -8777,7 +8807,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,7 +8828,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -8813,7 +8843,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -8828,7 +8858,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,7 +8879,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -8864,7 +8894,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -8879,7 +8909,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8935,7 +8965,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B49" s="5">
         <v>994</v>
@@ -8947,10 +8977,10 @@
         <v>277223</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>78</v>
@@ -8962,10 +8992,10 @@
         <v>275622</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>78</v>
@@ -8977,10 +9007,10 @@
         <v>552845</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>78</v>
@@ -9004,7 +9034,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -9019,7 +9049,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -9034,7 +9064,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9055,7 +9085,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -9070,7 +9100,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -9085,7 +9115,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,7 +9136,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -9121,7 +9151,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -9136,7 +9166,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,7 +9187,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -9172,7 +9202,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -9187,7 +9217,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9208,7 +9238,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -9223,7 +9253,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -9238,7 +9268,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9259,7 +9289,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -9274,7 +9304,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -9289,7 +9319,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9310,7 +9340,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -9325,7 +9355,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -9340,7 +9370,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9396,7 +9426,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B58" s="5">
         <v>994</v>
@@ -9408,10 +9438,10 @@
         <v>627754</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>78</v>
@@ -9423,10 +9453,10 @@
         <v>804203</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>78</v>
@@ -9438,10 +9468,10 @@
         <v>1431957</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>78</v>
@@ -9465,7 +9495,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -9480,7 +9510,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -9495,7 +9525,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -9516,7 +9546,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -9531,7 +9561,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -9546,7 +9576,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -9567,7 +9597,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -9582,7 +9612,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -9597,7 +9627,7 @@
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -9618,7 +9648,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -9633,7 +9663,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -9648,7 +9678,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -9669,7 +9699,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -9684,7 +9714,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -9699,7 +9729,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -9720,7 +9750,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -9735,7 +9765,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -9750,7 +9780,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -9771,7 +9801,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -9786,7 +9816,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -9801,7 +9831,7 @@
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -9857,7 +9887,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B67" s="5">
         <v>994</v>
@@ -9869,10 +9899,10 @@
         <v>859428</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>78</v>
@@ -9884,10 +9914,10 @@
         <v>868434</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>78</v>
@@ -9899,10 +9929,10 @@
         <v>1727862</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="Q67" s="7" t="s">
         <v>78</v>
@@ -9926,7 +9956,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -9941,7 +9971,7 @@
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -9956,7 +9986,7 @@
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -9977,7 +10007,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -9992,7 +10022,7 @@
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -10007,7 +10037,7 @@
         <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -10028,7 +10058,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -10043,7 +10073,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -10058,7 +10088,7 @@
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -10079,7 +10109,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -10094,7 +10124,7 @@
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -10109,7 +10139,7 @@
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -10130,7 +10160,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -10145,7 +10175,7 @@
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -10160,7 +10190,7 @@
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -10181,7 +10211,7 @@
         <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -10196,7 +10226,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -10211,7 +10241,7 @@
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -10232,7 +10262,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -10247,7 +10277,7 @@
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -10262,7 +10292,7 @@
         <v>11</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -10330,10 +10360,10 @@
         <v>3385228</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>78</v>
@@ -10345,10 +10375,10 @@
         <v>3835581</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>78</v>
@@ -10357,13 +10387,13 @@
         <v>8743</v>
       </c>
       <c r="N76" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="Q76" s="7" t="s">
         <v>78</v>
@@ -10387,7 +10417,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -10402,7 +10432,7 @@
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -10417,7 +10447,7 @@
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -10438,7 +10468,7 @@
         <v>11</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -10453,7 +10483,7 @@
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="M78" s="7">
         <v>0</v>
@@ -10468,7 +10498,7 @@
         <v>11</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -10489,7 +10519,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
@@ -10504,7 +10534,7 @@
         <v>11</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="M79" s="7">
         <v>0</v>
@@ -10519,7 +10549,7 @@
         <v>11</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -10540,7 +10570,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -10555,7 +10585,7 @@
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -10570,7 +10600,7 @@
         <v>11</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -10591,7 +10621,7 @@
         <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -10606,7 +10636,7 @@
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="M81" s="7">
         <v>0</v>
@@ -10621,7 +10651,7 @@
         <v>11</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -10642,7 +10672,7 @@
         <v>11</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -10657,7 +10687,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="M82" s="7">
         <v>0</v>
@@ -10672,7 +10702,7 @@
         <v>11</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -10693,7 +10723,7 @@
         <v>11</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -10708,7 +10738,7 @@
         <v>11</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="M83" s="7">
         <v>0</v>
@@ -10723,7 +10753,7 @@
         <v>11</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -10765,7 +10795,7 @@
         <v>8743</v>
       </c>
       <c r="N84" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O84" s="7" t="s">
         <v>78</v>
@@ -10779,7 +10809,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D21B9E83-B8D0-4212-898D-5EA411B6D70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1733CEA-EE7F-4443-A2D6-4E51A4895D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00CB4539-F2DA-4A09-A442-028C871371BE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B0B8563-6289-4C0D-84D7-99E358B8EC8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="605">
-  <si>
-    <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 26,03%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="588">
+  <si>
+    <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2016 (Tasa respuesta: 26,03%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -87,1636 +87,1585 @@
     <t>5,92%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>12,36%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>8,37%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -2263,7 +2212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7116DD-7CE4-4D3E-A288-7E7C2DC4A6F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E784C110-ACDB-47A2-968A-B56289E4E0E3}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3031,13 +2980,13 @@
         <v>63958</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3001,13 @@
         <v>7141</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3067,13 +3016,13 @@
         <v>6764</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -3082,13 +3031,13 @@
         <v>13905</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3052,13 @@
         <v>38096</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3118,13 +3067,13 @@
         <v>18922</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -3133,13 +3082,13 @@
         <v>57018</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3103,13 @@
         <v>23369</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3169,13 +3118,13 @@
         <v>19017</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -3184,13 +3133,13 @@
         <v>42385</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3154,13 @@
         <v>5075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3220,13 +3169,13 @@
         <v>3368</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -3235,13 +3184,13 @@
         <v>8443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3246,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -3315,7 +3264,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3330,7 +3279,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3345,7 +3294,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3309,13 @@
         <v>9246</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3375,13 +3324,13 @@
         <v>3740</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -3390,13 +3339,13 @@
         <v>12987</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3360,13 @@
         <v>935</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3426,13 +3375,13 @@
         <v>902</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -3441,13 +3390,13 @@
         <v>1836</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3411,13 @@
         <v>26679</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3477,13 +3426,13 @@
         <v>8240</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -3492,13 +3441,13 @@
         <v>34919</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3462,13 @@
         <v>4575</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -3528,13 +3477,13 @@
         <v>10668</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -3543,13 +3492,13 @@
         <v>15243</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3513,13 @@
         <v>19398</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H27" s="7">
         <v>19</v>
@@ -3582,10 +3531,10 @@
         <v>99</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M27" s="7">
         <v>39</v>
@@ -3594,13 +3543,13 @@
         <v>38301</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3564,13 @@
         <v>12087</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3630,13 +3579,13 @@
         <v>18439</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -3645,13 +3594,13 @@
         <v>30526</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3615,13 @@
         <v>9918</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3681,13 +3630,13 @@
         <v>1707</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -3696,13 +3645,13 @@
         <v>11625</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3707,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B31" s="5">
         <v>994</v>
@@ -3776,7 +3725,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3791,7 +3740,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3806,7 +3755,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3770,13 @@
         <v>15869</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -3836,13 +3785,13 @@
         <v>4049</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -3851,13 +3800,13 @@
         <v>19918</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3821,13 @@
         <v>5053</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3887,13 +3836,13 @@
         <v>943</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -3902,13 +3851,13 @@
         <v>5996</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3872,13 @@
         <v>17700</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3938,13 +3887,13 @@
         <v>2435</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -3953,13 +3902,13 @@
         <v>20135</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3923,13 @@
         <v>4698</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -3989,13 +3938,13 @@
         <v>7916</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -4004,13 +3953,13 @@
         <v>12614</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +3974,13 @@
         <v>28603</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -4040,13 +3989,13 @@
         <v>14147</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M36" s="7">
         <v>40</v>
@@ -4055,13 +4004,13 @@
         <v>42750</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4025,13 @@
         <v>27767</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>16</v>
@@ -4091,13 +4040,13 @@
         <v>17140</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M37" s="7">
         <v>43</v>
@@ -4106,13 +4055,13 @@
         <v>44907</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4076,13 @@
         <v>13814</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -4142,13 +4091,13 @@
         <v>3772</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M38" s="7">
         <v>16</v>
@@ -4157,13 +4106,13 @@
         <v>17586</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,7 +4168,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -4237,7 +4186,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -4252,7 +4201,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -4267,7 +4216,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4231,13 @@
         <v>9192</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -4297,13 +4246,13 @@
         <v>7130</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M41" s="7">
         <v>16</v>
@@ -4312,13 +4261,13 @@
         <v>16323</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4282,13 @@
         <v>7116</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -4348,13 +4297,13 @@
         <v>1749</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M42" s="7">
         <v>8</v>
@@ -4363,13 +4312,13 @@
         <v>8865</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4333,13 @@
         <v>13805</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H43" s="7">
         <v>14</v>
@@ -4399,13 +4348,13 @@
         <v>13015</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M43" s="7">
         <v>28</v>
@@ -4414,13 +4363,13 @@
         <v>26820</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>288</v>
+        <v>26</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4384,13 @@
         <v>7811</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H44" s="7">
         <v>4</v>
@@ -4450,13 +4399,13 @@
         <v>3365</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
@@ -4465,13 +4414,13 @@
         <v>11176</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4435,13 @@
         <v>12261</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H45" s="7">
         <v>15</v>
@@ -4501,13 +4450,13 @@
         <v>14175</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M45" s="7">
         <v>27</v>
@@ -4516,13 +4465,13 @@
         <v>26436</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4486,13 @@
         <v>9107</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -4552,13 +4501,13 @@
         <v>9015</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M46" s="7">
         <v>17</v>
@@ -4567,13 +4516,13 @@
         <v>18122</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4537,13 @@
         <v>891</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -4603,13 +4552,13 @@
         <v>1772</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -4618,13 +4567,13 @@
         <v>2663</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,7 +4629,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B49" s="5">
         <v>994</v>
@@ -4698,7 +4647,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4713,7 +4662,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4728,7 +4677,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>323</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4692,13 @@
         <v>12368</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H50" s="7">
         <v>3</v>
@@ -4758,13 +4707,13 @@
         <v>3006</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -4773,13 +4722,13 @@
         <v>15374</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4743,13 @@
         <v>2689</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H51" s="7">
         <v>4</v>
@@ -4809,13 +4758,13 @@
         <v>3867</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M51" s="7">
         <v>7</v>
@@ -4824,13 +4773,13 @@
         <v>6556</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4794,13 @@
         <v>9809</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -4860,13 +4809,13 @@
         <v>5041</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M52" s="7">
         <v>15</v>
@@ -4875,13 +4824,13 @@
         <v>14851</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4845,13 @@
         <v>10807</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="H53" s="7">
         <v>9</v>
@@ -4911,13 +4860,13 @@
         <v>8908</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="M53" s="7">
         <v>20</v>
@@ -4926,13 +4875,13 @@
         <v>19715</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4896,13 @@
         <v>23874</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H54" s="7">
         <v>21</v>
@@ -4962,13 +4911,13 @@
         <v>20997</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="M54" s="7">
         <v>43</v>
@@ -4980,10 +4929,10 @@
         <v>96</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>126</v>
+        <v>354</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4947,13 @@
         <v>14579</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H55" s="7">
         <v>9</v>
@@ -5013,13 +4962,13 @@
         <v>9425</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="M55" s="7">
         <v>24</v>
@@ -5028,13 +4977,13 @@
         <v>24004</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +4998,13 @@
         <v>9408</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -5064,13 +5013,13 @@
         <v>1827</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M56" s="7">
         <v>11</v>
@@ -5079,13 +5028,13 @@
         <v>11235</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>380</v>
+        <v>228</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5090,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B58" s="5">
         <v>994</v>
@@ -5159,7 +5108,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -5174,7 +5123,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -5189,7 +5138,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,13 +5153,13 @@
         <v>17410</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="H59" s="7">
         <v>15</v>
@@ -5219,13 +5168,13 @@
         <v>15894</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M59" s="7">
         <v>30</v>
@@ -5234,13 +5183,13 @@
         <v>33305</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5204,13 @@
         <v>4031</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -5276,7 +5225,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -5285,13 +5234,13 @@
         <v>4031</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5255,13 @@
         <v>35927</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H61" s="7">
         <v>17</v>
@@ -5321,13 +5270,13 @@
         <v>17616</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>404</v>
+        <v>54</v>
       </c>
       <c r="M61" s="7">
         <v>49</v>
@@ -5336,13 +5285,13 @@
         <v>53544</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>406</v>
+        <v>216</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5306,13 @@
         <v>24737</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>86</v>
+        <v>396</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="H62" s="7">
         <v>17</v>
@@ -5372,13 +5321,13 @@
         <v>17160</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="M62" s="7">
         <v>39</v>
@@ -5387,13 +5336,13 @@
         <v>41898</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5357,13 @@
         <v>59887</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="H63" s="7">
         <v>47</v>
@@ -5423,13 +5372,13 @@
         <v>47300</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="M63" s="7">
         <v>101</v>
@@ -5438,13 +5387,13 @@
         <v>107187</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5408,13 @@
         <v>68742</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="H64" s="7">
         <v>44</v>
@@ -5474,13 +5423,13 @@
         <v>44685</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="M64" s="7">
         <v>102</v>
@@ -5489,13 +5438,13 @@
         <v>113427</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5459,13 @@
         <v>37512</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="H65" s="7">
         <v>40</v>
@@ -5525,13 +5474,13 @@
         <v>42701</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="M65" s="7">
         <v>72</v>
@@ -5540,13 +5489,13 @@
         <v>80212</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>440</v>
+        <v>316</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>436</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,7 +5551,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B67" s="5">
         <v>994</v>
@@ -5620,7 +5569,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -5635,7 +5584,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -5650,7 +5599,7 @@
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5614,13 @@
         <v>25330</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="H68" s="7">
         <v>21</v>
@@ -5680,13 +5629,13 @@
         <v>22409</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="M68" s="7">
         <v>45</v>
@@ -5695,13 +5644,13 @@
         <v>47739</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>452</v>
+        <v>106</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,10 +5668,10 @@
         <v>92</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>454</v>
+        <v>385</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="H69" s="7">
         <v>4</v>
@@ -5731,13 +5680,13 @@
         <v>4030</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="M69" s="7">
         <v>8</v>
@@ -5746,13 +5695,13 @@
         <v>8162</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>14</v>
+        <v>439</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5716,13 @@
         <v>48545</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="H70" s="7">
         <v>27</v>
@@ -5782,13 +5731,13 @@
         <v>29247</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>463</v>
+        <v>189</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="M70" s="7">
         <v>74</v>
@@ -5797,13 +5746,13 @@
         <v>77792</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5767,13 @@
         <v>24139</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="H71" s="7">
         <v>13</v>
@@ -5833,13 +5782,13 @@
         <v>12851</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>30</v>
+        <v>369</v>
       </c>
       <c r="M71" s="7">
         <v>37</v>
@@ -5848,13 +5797,13 @@
         <v>36990</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>124</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5818,13 @@
         <v>71381</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="H72" s="7">
         <v>34</v>
@@ -5884,13 +5833,13 @@
         <v>36237</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="M72" s="7">
         <v>100</v>
@@ -5899,13 +5848,13 @@
         <v>107619</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5869,13 @@
         <v>50322</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="H73" s="7">
         <v>47</v>
@@ -5935,13 +5884,13 @@
         <v>52362</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>245</v>
+        <v>469</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="M73" s="7">
         <v>96</v>
@@ -5950,13 +5899,13 @@
         <v>102685</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5920,13 @@
         <v>13473</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>332</v>
+        <v>475</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="H74" s="7">
         <v>10</v>
@@ -5986,13 +5935,13 @@
         <v>10037</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="M74" s="7">
         <v>23</v>
@@ -6001,13 +5950,13 @@
         <v>23509</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>497</v>
+        <v>194</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,7 +6030,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -6096,7 +6045,7 @@
         <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M76" s="7">
         <v>0</v>
@@ -6111,7 +6060,7 @@
         <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6075,13 @@
         <v>105051</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>503</v>
+        <v>201</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="H77" s="7">
         <v>63</v>
@@ -6141,13 +6090,13 @@
         <v>65824</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="M77" s="7">
         <v>161</v>
@@ -6156,13 +6105,13 @@
         <v>170875</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6126,13 @@
         <v>39866</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>511</v>
+        <v>377</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="H78" s="7">
         <v>24</v>
@@ -6192,13 +6141,13 @@
         <v>23771</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="M78" s="7">
         <v>60</v>
@@ -6207,13 +6156,13 @@
         <v>63637</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6177,13 @@
         <v>215632</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="H79" s="7">
         <v>111</v>
@@ -6243,13 +6192,13 @@
         <v>115071</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="M79" s="7">
         <v>316</v>
@@ -6258,13 +6207,13 @@
         <v>330702</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6228,13 @@
         <v>94247</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>529</v>
+        <v>109</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="H80" s="7">
         <v>75</v>
@@ -6294,13 +6243,13 @@
         <v>75198</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="M80" s="7">
         <v>166</v>
@@ -6309,13 +6258,13 @@
         <v>169446</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>208</v>
+        <v>514</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6279,13 @@
         <v>286151</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="H81" s="7">
         <v>177</v>
@@ -6345,13 +6294,13 @@
         <v>182012</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="M81" s="7">
         <v>445</v>
@@ -6360,13 +6309,13 @@
         <v>468163</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6330,13 @@
         <v>235624</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="H82" s="7">
         <v>179</v>
@@ -6396,13 +6345,13 @@
         <v>190321</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="M82" s="7">
         <v>397</v>
@@ -6411,13 +6360,13 @@
         <v>425945</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6381,13 @@
         <v>104034</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="H83" s="7">
         <v>70</v>
@@ -6447,13 +6396,13 @@
         <v>71711</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>267</v>
+        <v>538</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="M83" s="7">
         <v>165</v>
@@ -6462,13 +6411,13 @@
         <v>175745</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>145</v>
+        <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6473,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -6548,7 +6497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C66293-B2AC-4B45-990C-0154153AE087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF1568A-DB26-45C3-A6D4-450A8AECCADA}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6565,7 +6514,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6672,10 +6621,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>78</v>
@@ -6687,10 +6636,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>78</v>
@@ -6702,10 +6651,10 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>78</v>
@@ -6729,7 +6678,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6744,7 +6693,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6759,7 +6708,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6729,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6795,7 +6744,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6810,7 +6759,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,7 +6780,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6846,7 +6795,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6861,7 +6810,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,7 +6831,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6897,7 +6846,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6912,7 +6861,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,7 +6882,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6948,7 +6897,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6963,7 +6912,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,7 +6933,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6999,7 +6948,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7014,7 +6963,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,7 +6984,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7050,7 +6999,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7065,7 +7014,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,10 +7082,10 @@
         <v>519297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>78</v>
@@ -7148,10 +7097,10 @@
         <v>554566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>78</v>
@@ -7163,10 +7112,10 @@
         <v>1073864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>78</v>
@@ -7190,7 +7139,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7205,7 +7154,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7220,7 +7169,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,7 +7190,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7256,7 +7205,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7271,7 +7220,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,7 +7241,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7307,7 +7256,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7322,7 +7271,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,7 +7292,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7358,7 +7307,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7373,7 +7322,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,7 +7343,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7409,7 +7358,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7424,7 +7373,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,7 +7394,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7460,7 +7409,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7475,7 +7424,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7496,7 +7445,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7511,7 +7460,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7526,7 +7475,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,7 +7531,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -7594,10 +7543,10 @@
         <v>322240</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>78</v>
@@ -7609,10 +7558,10 @@
         <v>373284</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>78</v>
@@ -7624,10 +7573,10 @@
         <v>695524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>78</v>
@@ -7651,7 +7600,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7666,7 +7615,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7681,7 +7630,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,7 +7651,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7717,7 +7666,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7732,7 +7681,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,7 +7702,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7768,7 +7717,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7783,7 +7732,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,7 +7753,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7819,7 +7768,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7834,7 +7783,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,7 +7804,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7870,7 +7819,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -7885,7 +7834,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,7 +7855,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7921,7 +7870,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7936,7 +7885,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,7 +7906,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7972,7 +7921,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7987,7 +7936,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8043,7 +7992,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B31" s="5">
         <v>994</v>
@@ -8055,10 +8004,10 @@
         <v>322240</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>78</v>
@@ -8070,10 +8019,10 @@
         <v>428556</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>78</v>
@@ -8085,10 +8034,10 @@
         <v>750796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>78</v>
@@ -8112,7 +8061,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8127,7 +8076,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8142,7 +8091,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,7 +8112,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8178,7 +8127,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -8193,7 +8142,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,7 +8163,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8229,7 +8178,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8244,7 +8193,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,7 +8214,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8280,7 +8229,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -8295,7 +8244,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,7 +8265,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8331,7 +8280,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8346,7 +8295,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,7 +8316,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -8382,7 +8331,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -8397,7 +8346,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8418,7 +8367,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -8433,7 +8382,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -8448,7 +8397,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8504,7 +8453,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -8516,10 +8465,10 @@
         <v>196748</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>78</v>
@@ -8531,10 +8480,10 @@
         <v>259513</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>78</v>
@@ -8546,10 +8495,10 @@
         <v>456260</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>78</v>
@@ -8573,7 +8522,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -8588,7 +8537,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -8603,7 +8552,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8624,7 +8573,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -8639,7 +8588,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -8654,7 +8603,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8675,7 +8624,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -8690,7 +8639,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -8705,7 +8654,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8726,7 +8675,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -8741,7 +8690,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -8756,7 +8705,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8777,7 +8726,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -8792,7 +8741,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -8807,7 +8756,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8828,7 +8777,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -8843,7 +8792,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -8858,7 +8807,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8879,7 +8828,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -8894,7 +8843,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -8909,7 +8858,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8965,7 +8914,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B49" s="5">
         <v>994</v>
@@ -8977,10 +8926,10 @@
         <v>277223</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>78</v>
@@ -8992,10 +8941,10 @@
         <v>275622</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>78</v>
@@ -9007,10 +8956,10 @@
         <v>552845</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>78</v>
@@ -9034,7 +8983,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -9049,7 +8998,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -9064,7 +9013,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9085,7 +9034,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -9100,7 +9049,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -9115,7 +9064,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9136,7 +9085,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -9151,7 +9100,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -9166,7 +9115,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9187,7 +9136,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -9202,7 +9151,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -9217,7 +9166,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9238,7 +9187,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -9253,7 +9202,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -9268,7 +9217,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9289,7 +9238,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -9304,7 +9253,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -9319,7 +9268,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9340,7 +9289,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -9355,7 +9304,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -9370,7 +9319,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9426,7 +9375,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B58" s="5">
         <v>994</v>
@@ -9438,10 +9387,10 @@
         <v>627754</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>78</v>
@@ -9453,10 +9402,10 @@
         <v>804203</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>78</v>
@@ -9468,10 +9417,10 @@
         <v>1431957</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>78</v>
@@ -9495,7 +9444,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -9510,7 +9459,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -9525,7 +9474,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -9546,7 +9495,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -9561,7 +9510,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -9576,7 +9525,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -9597,7 +9546,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -9612,7 +9561,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -9627,7 +9576,7 @@
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -9648,7 +9597,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -9663,7 +9612,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -9678,7 +9627,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -9699,7 +9648,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -9714,7 +9663,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -9729,7 +9678,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -9750,7 +9699,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -9765,7 +9714,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -9780,7 +9729,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -9801,7 +9750,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -9816,7 +9765,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -9831,7 +9780,7 @@
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -9887,7 +9836,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B67" s="5">
         <v>994</v>
@@ -9899,10 +9848,10 @@
         <v>859428</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>78</v>
@@ -9914,10 +9863,10 @@
         <v>868434</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>78</v>
@@ -9929,10 +9878,10 @@
         <v>1727862</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="Q67" s="7" t="s">
         <v>78</v>
@@ -9956,7 +9905,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -9971,7 +9920,7 @@
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -9986,7 +9935,7 @@
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -10007,7 +9956,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -10022,7 +9971,7 @@
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -10037,7 +9986,7 @@
         <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -10058,7 +10007,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -10073,7 +10022,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -10088,7 +10037,7 @@
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -10109,7 +10058,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -10124,7 +10073,7 @@
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -10139,7 +10088,7 @@
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -10160,7 +10109,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -10175,7 +10124,7 @@
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -10190,7 +10139,7 @@
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -10211,7 +10160,7 @@
         <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -10226,7 +10175,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -10241,7 +10190,7 @@
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -10262,7 +10211,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -10277,7 +10226,7 @@
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -10292,7 +10241,7 @@
         <v>11</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -10360,10 +10309,10 @@
         <v>3385228</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>78</v>
@@ -10375,10 +10324,10 @@
         <v>3835581</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>78</v>
@@ -10390,10 +10339,10 @@
         <v>7220808</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="Q76" s="7" t="s">
         <v>78</v>
@@ -10417,7 +10366,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -10432,7 +10381,7 @@
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -10447,7 +10396,7 @@
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -10468,7 +10417,7 @@
         <v>11</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -10483,7 +10432,7 @@
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="M78" s="7">
         <v>0</v>
@@ -10498,7 +10447,7 @@
         <v>11</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -10519,7 +10468,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
@@ -10534,7 +10483,7 @@
         <v>11</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="M79" s="7">
         <v>0</v>
@@ -10549,7 +10498,7 @@
         <v>11</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -10570,7 +10519,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -10585,7 +10534,7 @@
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -10600,7 +10549,7 @@
         <v>11</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -10621,7 +10570,7 @@
         <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -10636,7 +10585,7 @@
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="M81" s="7">
         <v>0</v>
@@ -10651,7 +10600,7 @@
         <v>11</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -10672,7 +10621,7 @@
         <v>11</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -10687,7 +10636,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="M82" s="7">
         <v>0</v>
@@ -10702,7 +10651,7 @@
         <v>11</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -10723,7 +10672,7 @@
         <v>11</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -10738,7 +10687,7 @@
         <v>11</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="M83" s="7">
         <v>0</v>
@@ -10753,7 +10702,7 @@
         <v>11</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -10809,7 +10758,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9528BA0-6575-4F42-9016-F7C085B5746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC40AC54-995E-4614-A9BE-879A18C0F41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00FB03D2-D095-4E53-9E05-4B986F393880}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BBC1A752-3911-4618-9C64-A9FDC5477100}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -1989,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C887CA0E-5CE0-43BB-956E-B3AC3CCF95EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DFEFBF-0800-482B-BF7A-F4A2F4834C9A}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
